--- a/realsense/numbers/speed/speed-prop-original-v1-mandrill_tileExpand.xlsx
+++ b/realsense/numbers/speed/speed-prop-original-v1-mandrill_tileExpand.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taw11\source\repos2\At-oZ\realsense\realsense\numbers\speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2409A5BD-A8BD-44CD-BA6C-4E01F707BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B806CB-E337-4E41-BBF4-D2CAA26131F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3E063786-2982-45DC-B27C-C653500564B2}"/>
   </bookViews>
   <sheets>
     <sheet name="speed-prop-original-v1-mandrill" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -699,10 +710,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11828664445790429"/>
+          <c:x val="0.15674825174825174"/>
           <c:y val="6.7335411198600176E-2"/>
-          <c:w val="0.84725822733696754"/>
-          <c:h val="0.75451115485564302"/>
+          <c:w val="0.80879673476130165"/>
+          <c:h val="0.72056065908428113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1067,7 +1078,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$A$2:$A$11</c15:sqref>
@@ -1112,7 +1123,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$C$2:$C$11</c15:sqref>
@@ -1156,7 +1167,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7594-4499-9FCF-D3C74C2FB8CB}"/>
                   </c:ext>
@@ -1196,7 +1207,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$A$2:$A$11</c15:sqref>
@@ -1241,7 +1252,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$D$2:$D$11</c15:sqref>
@@ -1285,7 +1296,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7594-4499-9FCF-D3C74C2FB8CB}"/>
                   </c:ext>
@@ -1325,7 +1336,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$A$2:$A$11</c15:sqref>
@@ -1370,7 +1381,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$E$2:$E$11</c15:sqref>
@@ -1414,7 +1425,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7594-4499-9FCF-D3C74C2FB8CB}"/>
                   </c:ext>
@@ -1454,7 +1465,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$A$2:$A$11</c15:sqref>
@@ -1499,7 +1510,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$F$2:$F$11</c15:sqref>
@@ -1543,7 +1554,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7594-4499-9FCF-D3C74C2FB8CB}"/>
                   </c:ext>
@@ -1583,7 +1594,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$A$2:$A$11</c15:sqref>
@@ -1628,7 +1639,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'speed-prop-original-v1-mandrill'!$G$2:$G$11</c15:sqref>
@@ -1672,7 +1683,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7594-4499-9FCF-D3C74C2FB8CB}"/>
                   </c:ext>
@@ -1704,6 +1715,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1711,7 +1736,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1724,10 +1749,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Number of layers</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1744,7 +1769,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1762,7 +1787,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1779,7 +1804,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1820,6 +1845,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1827,7 +1866,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1840,10 +1879,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Time [ms]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1860,7 +1899,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1878,7 +1917,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1895,7 +1934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1930,10 +1969,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7"/>
-          <c:y val="0.26620379483814527"/>
-          <c:w val="0.23461538461538461"/>
-          <c:h val="0.13824365704286964"/>
+          <c:x val="0.67027972027972016"/>
+          <c:y val="0.14891975308641975"/>
+          <c:w val="0.2818181818181818"/>
+          <c:h val="0.16910785457373384"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1953,7 +1992,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2901,7 +2940,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
